--- a/dataset1/meaTable.xlsx
+++ b/dataset1/meaTable.xlsx
@@ -5,15 +5,15 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adrianlo/Documents/GitHub/meaR/data1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adrianlo/Documents/GitHub/meaR/dataset1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BDD306B-B8E8-184F-8144-CEF9DB2C8939}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDC40D74-829F-B049-8B5A-BF004A80A164}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3020" yWindow="7680" windowWidth="28800" windowHeight="11380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="P60" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913" concurrentCalc="0"/>
 </workbook>

--- a/dataset1/meaTable.xlsx
+++ b/dataset1/meaTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adrianlo/Documents/GitHub/meaR/dataset1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDC40D74-829F-B049-8B5A-BF004A80A164}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A9881AD-74C4-FF49-A131-D31BED9887FF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3020" yWindow="7680" windowWidth="28800" windowHeight="11380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="49">
   <si>
     <t>animalID</t>
   </si>
@@ -31,33 +31,15 @@
     <t>genotype</t>
   </si>
   <si>
-    <t>region</t>
-  </si>
-  <si>
     <t>exclude</t>
   </si>
   <si>
-    <t>hasHP</t>
-  </si>
-  <si>
     <t>WT</t>
   </si>
   <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>NA</t>
-  </si>
-  <si>
     <t>HET</t>
   </si>
   <si>
-    <t>P</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
     <t>YES</t>
   </si>
   <si>
@@ -182,108 +164,6 @@
   </si>
   <si>
     <t>slice 3 5296.txt</t>
-  </si>
-  <si>
-    <t>upperLayerChannels</t>
-  </si>
-  <si>
-    <t>21,31,41,51,61,71,12,22,32,42,52,62,72,82,13,23,33,43,53,63,73,83</t>
-  </si>
-  <si>
-    <t>61,71,62,72,82,63,73,83,74,84,75,85,76,86,77,87,78</t>
-  </si>
-  <si>
-    <t>74,84,75,85,66,76,86,57,67,77,87,58,68,78</t>
-  </si>
-  <si>
-    <t>21,31,41,51,61,71,81,12,22,32,42,52,62,72,82,13</t>
-  </si>
-  <si>
-    <t>21,31,41,51,61,71,12,22,32,42,52,62,72,82,13,23,33</t>
-  </si>
-  <si>
-    <t>21,31,41,51,61,71,81,12,22,32,42,52,62,72,82,13,83</t>
-  </si>
-  <si>
-    <t>21,31,41,51,61,71,12,22,32,42,52,62,72,82,13,83</t>
-  </si>
-  <si>
-    <t>21,31,41,51,61,12,22,32,42,52,13,23,33,43,14,24,34</t>
-  </si>
-  <si>
-    <t>21,31,41,51,61,71,12,22,32,42,52,62,72,82,13</t>
-  </si>
-  <si>
-    <t>41,51,61,71,52,62,72,82,53,63,73,83,64,74,84,65,75,85,66,76,86,67,77,87,68,78</t>
-  </si>
-  <si>
-    <t>21,31,41,51,61,71,12,22</t>
-  </si>
-  <si>
-    <t>31,41,51,61,71,52,62,72,82,83</t>
-  </si>
-  <si>
-    <t>21,31,41,51,61,71,12,22,32,42,52,62,72,82,13,23</t>
-  </si>
-  <si>
-    <t>21,31,41,51,61,71,12,22,32,42,52,62,72,82,73,83</t>
-  </si>
-  <si>
-    <t>21,31,41,51,61,71,12,22,32,42,52,62,72,82</t>
-  </si>
-  <si>
-    <t>84,75,85,66,76,86,57,67,77,87,48,58,68,78</t>
-  </si>
-  <si>
-    <t>75,85,16,26,36,46,56,66,76,86,17,27,37,47,57,67,77,87,28,38,48,58,68,78</t>
-  </si>
-  <si>
-    <t>21,31,41,51,61,71,12,22,32,42,52,62,72,82,83</t>
-  </si>
-  <si>
-    <t>21,31,41,51,61,71,12,22,32,42,52,13,23</t>
-  </si>
-  <si>
-    <t>21,31,41,51,61,71,12,22,32,13</t>
-  </si>
-  <si>
-    <t>51,61,71,62,72,82,63,73,83,74,84,85,86,87</t>
-  </si>
-  <si>
-    <t>21,31,41,51,61,71,12,22,32,42,52,62,72,82,13,23,33,43,53,14,24,34</t>
-  </si>
-  <si>
-    <t>21,31,41,51,61,71,12,22,32,42,52,62,72,82,63,73,83,84</t>
-  </si>
-  <si>
-    <t>21,31,41,51,61,71,81,12,22,32,42,52,62,72,82,13,23,33,43,53,63,73,83,14,24,34</t>
-  </si>
-  <si>
-    <t>21,31,41,51,61,71,12,22,32,42,52,62,72,82,13,23,33,43,53,63,73,83,84</t>
-  </si>
-  <si>
-    <t>16,17,27,37,28,38,48,58</t>
-  </si>
-  <si>
-    <t>51,61,71,52,62,72,82,63,73,83,64,74,84,75,85,76,86,77,87,78</t>
-  </si>
-  <si>
-    <t>82,73,83,64,74,84,65,75,85,66,76,86,57,67,77,87,48,58,68,78</t>
-  </si>
-  <si>
-    <t>21,12,22,13,23,14,24,25,16,26,17,27,18,28</t>
-  </si>
-  <si>
-    <t>71,72,82,73,83,64,74,84,65,75,85,66,76,86,67,77,87,58,68,78</t>
-  </si>
-  <si>
-    <t>51,61,71,62,72,82,63,73,83,64,74,84,65,75,85,66,76,86,67,77,87,68,78</t>
-  </si>
-  <si>
-    <t>71,72,82,73,83,74,84,75,85,76,86,77,87,68,78</t>
-  </si>
-  <si>
-    <t>75,85,46,56,66,76,86,37,47,57,67,77,87,27,38,48,58,68,78</t>
   </si>
   <si>
     <t>channels2exclude</t>
@@ -619,10 +499,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M41"/>
+  <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -631,14 +511,11 @@
     <col min="2" max="2" width="16.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="69.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.83203125" style="1"/>
+    <col min="5" max="5" width="8.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -649,1069 +526,594 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="F1" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>5048</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D2" s="1">
         <v>1200</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="I2"/>
-      <c r="J2"/>
-      <c r="K2"/>
-      <c r="L2"/>
-      <c r="M2"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="F2"/>
+      <c r="G2"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>5049</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D3" s="1">
         <v>1200</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="J3"/>
-      <c r="K3"/>
-      <c r="L3"/>
-      <c r="M3"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="F3"/>
+      <c r="G3"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>5291</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D4" s="1">
         <v>900</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="J4"/>
-      <c r="K4"/>
-      <c r="L4"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="F4"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>5295</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D5" s="1">
         <v>1500</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5703</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D6" s="1">
         <v>1680</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>5704</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D7" s="1">
         <v>1800</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>5705</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D8" s="1">
         <v>600</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>5707</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D9" s="1">
         <v>1200</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>59</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D10" s="1">
         <v>1800</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>6146</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D11" s="2">
         <v>1500</v>
       </c>
-      <c r="E11" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>63</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D12" s="1">
         <v>1920</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>5300</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D13" s="1">
         <v>600</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>298</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D14" s="1">
         <v>720</v>
       </c>
-      <c r="E14" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>5048</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D15" s="1">
         <v>2820</v>
       </c>
-      <c r="E15" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>5703</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D16" s="1">
         <v>1200</v>
       </c>
-      <c r="E16" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>5704</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D17" s="1">
         <v>2340</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>59</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D18" s="1">
         <v>1800</v>
       </c>
-      <c r="E18" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>6146</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D19" s="2">
         <v>600</v>
       </c>
-      <c r="E19" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>6147</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D20" s="1">
         <v>1860</v>
       </c>
-      <c r="E20" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>63</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D21" s="1">
         <v>1800</v>
       </c>
-      <c r="E21" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>298</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D22" s="1">
         <v>1260</v>
       </c>
-      <c r="E22" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>5048</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D23" s="1">
         <v>720</v>
       </c>
-      <c r="E23" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>5291</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D24" s="1">
         <v>4500</v>
       </c>
-      <c r="E24" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>5292</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D25" s="1">
         <v>1500</v>
       </c>
-      <c r="E25" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>5293</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D26" s="1">
         <v>2400</v>
       </c>
-      <c r="E26" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>5300</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D27" s="1">
         <v>960</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>5704</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D28" s="1">
         <v>900</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>59</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D29" s="1">
         <v>1800</v>
       </c>
-      <c r="E29" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>6146</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D30" s="1">
         <v>2400</v>
       </c>
-      <c r="E30" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>6147</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D31" s="1">
         <v>2220</v>
       </c>
-      <c r="E31" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>6163</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D32" s="1">
         <v>1800</v>
       </c>
-      <c r="E32" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H32" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>63</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D33" s="1">
         <v>1800</v>
       </c>
-      <c r="E33" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>5290</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D34" s="1">
         <v>6300</v>
       </c>
-      <c r="E34" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H34" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>5048</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D35" s="1">
         <v>1200</v>
       </c>
-      <c r="E35" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H35" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>5293</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D36" s="1">
         <v>1860</v>
       </c>
-      <c r="E36" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H36" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>5296</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D37" s="1">
         <v>1800</v>
       </c>
-      <c r="E37" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H37" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>297</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D38" s="1">
         <v>1560</v>
       </c>
-      <c r="E38" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H38" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>5296</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D39" s="1">
         <v>600</v>
       </c>
-      <c r="E39" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H39" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>297</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D40" s="1">
         <v>1920</v>
       </c>
-      <c r="E40" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H40" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>5296</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D41" s="1">
         <v>1800</v>
       </c>
-      <c r="E41" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H41" s="1" t="s">
-        <v>86</v>
-      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:F41">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:E41">
     <sortCondition ref="B1:B41"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
